--- a/tutorial/StockMarket/data/input/id_forecast_rule.xlsx
+++ b/tutorial/StockMarket/data/input/id_forecast_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/StockMarket/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FDD466-52FF-E64F-B2F6-99D88C178325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCD9FC-CC73-654F-89E2-2A75D63ACA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="1880" windowWidth="27640" windowHeight="16800" xr2:uid="{7F05CAD4-2F79-AA4D-B888-717C348A10EE}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{7F05CAD4-2F79-AA4D-B888-717C348A10EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
